--- a/medicine/Enfance/Denis_Bretin/Denis_Bretin.xlsx
+++ b/medicine/Enfance/Denis_Bretin/Denis_Bretin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Denis Bretin, né en 1964 en Bourgogne, est un écrivain français, auteur de roman policier, de fantastique, de science-fiction et d'un ouvrage de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Denis Bretin étudie les sciences politiques à l'université de Lyon, où il rencontre et devient l'ami de Laurent Bonzon, né en 1964, avec lequel il écrit des romans policiers mâtinés de fantastique et de science-fiction. Il entreprend des études en philosophie et en langues orientales à la Sorbonne.
 Installé à Paris, il devient administrateur du théâtre de l'Athénée de 2001 à 2002, puis occupe le poste de secrétaire général du Festival d'automne et de secrétaire général de l’Odéon-théâtre de l’Europe.
@@ -549,17 +563,131 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Roman policier
-Le Mort-Homme, Paris, Éditions de Masque, 2004  (ISBN 2-7024-3194-1) ; réédition, Paris, Éditions de Masque, Masque poche no 43, 2014  (ISBN 978-2-7024-4108-4)
-Ouvrage de littérature d'enfance et de jeunesse
-D'or que landes ou l'Étrange Aventure d'Harvey Squire, Paris, Syros, 2009  (ISBN 978-2-7485-0852-9)
-Romans écrits en collaboration avec Laurent Bonzon
-Trilogie Complex
-Éden, Paris, Éditions du Masque, 2006  (ISBN 2-7024-3274-3) ; réédition, Paris, Pocket. Science-Fiction no 7047, 2011  (ISBN 2-266-20371-1)
+          <t>Roman policier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Mort-Homme, Paris, Éditions de Masque, 2004  (ISBN 2-7024-3194-1) ; réédition, Paris, Éditions de Masque, Masque poche no 43, 2014  (ISBN 978-2-7024-4108-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Denis_Bretin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Bretin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrage de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'or que landes ou l'Étrange Aventure d'Harvey Squire, Paris, Syros, 2009  (ISBN 978-2-7485-0852-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Denis_Bretin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Bretin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans écrits en collaboration avec Laurent Bonzon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Trilogie Complex</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Éden, Paris, Éditions du Masque, 2006  (ISBN 2-7024-3274-3) ; réédition, Paris, Pocket. Science-Fiction no 7047, 2011  (ISBN 2-266-20371-1)
 Sentinelle, Paris, Éditions du Masque, 2009  (ISBN 978-2-7024-3285-3) ; réédition, Paris, Pocket. Science-Fiction no 7048, 2011  (ISBN 2-266-20372-X)
-Génération, Paris, Éditions du Masque, 2013  (ISBN 978-2-7024-3587-8)
-Autres romans
-La Servante du Seigneur, Paris, Éditions du Masque, 1999  (ISBN 2-7024-7901-4) ; réédition, Paris, Seuil, Points no 748, 2000  (ISBN 2-02-039278-X)
+Génération, Paris, Éditions du Masque, 2013  (ISBN 978-2-7024-3587-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Denis_Bretin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Bretin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans écrits en collaboration avec Laurent Bonzon</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Servante du Seigneur, Paris, Éditions du Masque, 1999  (ISBN 2-7024-7901-4) ; réédition, Paris, Seuil, Points no 748, 2000  (ISBN 2-02-039278-X)
 Le Nécrographe, Paris, Éditions du Masque, 2000  (ISBN 2-7024-7941-3) ; réédition, Paris, LGF, Le Livre de poche no 17225, 2002  (ISBN 2-253-17225-1)
 Malo Mori, Paris, Éditions du Seuil, 2003  (ISBN 2-02-048502-8)
 Mickey Monster, Paris, Éditions Baleine, coll. Club Van Helsing, 2007  (ISBN 978-2-84219-423-9)
